--- a/products.xlsx
+++ b/products.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +409,9 @@
       <c r="B1" t="str">
         <v>price</v>
       </c>
+      <c r="C1" t="str">
+        <v>rating</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -417,12 +420,18 @@
       <c r="B2" t="str">
         <v/>
       </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v/>
       </c>
       <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
         <v/>
       </c>
     </row>
@@ -433,6 +442,9 @@
       <c r="B4" t="str">
         <v>7,699</v>
       </c>
+      <c r="C4" t="str">
+        <v>3,619</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -441,6 +453,9 @@
       <c r="B5" t="str">
         <v>7,699</v>
       </c>
+      <c r="C5" t="str">
+        <v>3,619</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -449,12 +464,18 @@
       <c r="B6" t="str">
         <v>9,999</v>
       </c>
+      <c r="C6" t="str">
+        <v>22,095</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v/>
       </c>
       <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
         <v/>
       </c>
     </row>
@@ -465,6 +486,9 @@
       <c r="B8" t="str">
         <v>6,799</v>
       </c>
+      <c r="C8" t="str">
+        <v>123</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -473,6 +497,9 @@
       <c r="B9" t="str">
         <v>6,799</v>
       </c>
+      <c r="C9" t="str">
+        <v>123</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -481,6 +508,9 @@
       <c r="B10" t="str">
         <v>8,499</v>
       </c>
+      <c r="C10" t="str">
+        <v>3,619</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -489,6 +519,9 @@
       <c r="B11" t="str">
         <v>11,999</v>
       </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -497,6 +530,9 @@
       <c r="B12" t="str">
         <v>11,999</v>
       </c>
+      <c r="C12" t="str">
+        <v>23,061</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -505,6 +541,9 @@
       <c r="B13" t="str">
         <v>20,999</v>
       </c>
+      <c r="C13" t="str">
+        <v>3,489</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -513,6 +552,9 @@
       <c r="B14" t="str">
         <v>6,799</v>
       </c>
+      <c r="C14" t="str">
+        <v>1,273</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -521,6 +563,9 @@
       <c r="B15" t="str">
         <v>11,999</v>
       </c>
+      <c r="C15" t="str">
+        <v>11,187</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -529,6 +574,9 @@
       <c r="B16" t="str">
         <v>12,499</v>
       </c>
+      <c r="C16" t="str">
+        <v>3,903</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -537,6 +585,9 @@
       <c r="B17" t="str">
         <v>19,249</v>
       </c>
+      <c r="C17" t="str">
+        <v>6,746</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -545,6 +596,9 @@
       <c r="B18" t="str">
         <v>8,499</v>
       </c>
+      <c r="C18" t="str">
+        <v>3,619</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -553,6 +607,9 @@
       <c r="B19" t="str">
         <v>19,999</v>
       </c>
+      <c r="C19" t="str">
+        <v>855</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -561,6 +618,9 @@
       <c r="B20" t="str">
         <v>21,999</v>
       </c>
+      <c r="C20" t="str">
+        <v>701</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -569,6 +629,9 @@
       <c r="B21" t="str">
         <v/>
       </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -577,6 +640,9 @@
       <c r="B22" t="str">
         <v/>
       </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -585,10 +651,13 @@
       <c r="B23" t="str">
         <v/>
       </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C23"/>
   </ignoredErrors>
 </worksheet>
 </file>